--- a/data/trans_orig/P17G-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9C78DC-270D-4B23-926C-672C810F8A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEED4DFF-0F37-4210-90F4-DA592EA388FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE83B14A-65A8-42A4-A61B-B2A2EF8FDC00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7ABAB42B-D7B0-4FE1-A391-99CE12732897}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="496">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -95,1432 +95,1438 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Médico privado/particular</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>Médico privado/particular</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8792415-5F07-4584-8271-CD3FDBA19D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECDFDD-8551-42B2-A14D-D3762A0A4088}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2191,16 +2197,16 @@
         <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -2209,13 +2215,13 @@
         <v>1909</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2224,13 +2230,13 @@
         <v>7611</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2239,13 +2245,13 @@
         <v>9520</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2400,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2421,13 @@
         <v>6576</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2430,13 +2436,13 @@
         <v>7057</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -2445,13 +2451,13 @@
         <v>13633</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2472,13 @@
         <v>11350</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2481,13 +2487,13 @@
         <v>17948</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -2496,19 +2502,19 @@
         <v>29298</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>10</v>
@@ -2517,13 +2523,13 @@
         <v>9678</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2532,13 +2538,13 @@
         <v>7629</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2547,13 +2553,13 @@
         <v>17307</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2574,13 @@
         <v>222247</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>361</v>
@@ -2583,13 +2589,13 @@
         <v>371518</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -2598,13 +2604,13 @@
         <v>593765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2666,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2678,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2693,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2708,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2729,13 @@
         <v>2114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2738,13 +2744,13 @@
         <v>1917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2753,13 +2759,13 @@
         <v>4031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2780,13 @@
         <v>13264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2789,13 +2795,13 @@
         <v>9108</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2804,19 +2810,19 @@
         <v>22373</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -2825,13 +2831,13 @@
         <v>5569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2840,13 +2846,13 @@
         <v>10516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2855,13 +2861,13 @@
         <v>16085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,16 +2879,16 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>50821</v>
+        <v>50820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -2891,13 +2897,13 @@
         <v>94607</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -2906,13 +2912,13 @@
         <v>145427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2930,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>71769</v>
+        <v>71768</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>52</v>
@@ -2986,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3001,7 +3007,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3016,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3037,13 @@
         <v>15296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3046,13 +3052,13 @@
         <v>9943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3061,13 +3067,13 @@
         <v>25239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3088,13 @@
         <v>29317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3097,13 +3103,13 @@
         <v>29390</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -3112,19 +3118,19 @@
         <v>58706</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
@@ -3133,13 +3139,13 @@
         <v>17157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3148,13 +3154,13 @@
         <v>25756</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -3163,13 +3169,13 @@
         <v>42913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3190,13 @@
         <v>594040</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>961</v>
@@ -3199,13 +3205,13 @@
         <v>983282</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1558</v>
@@ -3214,13 +3220,13 @@
         <v>1577321</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,7 +3282,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D631439-E2A4-42ED-BAB4-E444BEE292E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9041C-DFB7-4AE5-AB9D-D6204D6CE825}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3312,7 +3318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,13 +3425,13 @@
         <v>916</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3440,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3449,13 +3455,13 @@
         <v>916</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3503,7 +3509,7 @@
         <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>174</v>
@@ -3524,7 +3530,7 @@
         <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>176</v>
@@ -3536,13 +3542,13 @@
         <v>7344</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3551,19 +3557,19 @@
         <v>11559</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -3575,10 +3581,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3587,7 +3593,7 @@
         <v>2987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>184</v>
@@ -3608,7 +3614,7 @@
         <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3629,13 @@
         <v>325928</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -3638,13 +3644,13 @@
         <v>529897</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>797</v>
@@ -3653,13 +3659,13 @@
         <v>855825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3748,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3763,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,10 +3787,10 @@
         <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3799,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3808,10 +3814,10 @@
         <v>2743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -3829,13 +3835,13 @@
         <v>7880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -3844,13 +3850,13 @@
         <v>8969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -3859,19 +3865,19 @@
         <v>16850</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>13</v>
@@ -3880,13 +3886,13 @@
         <v>16364</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3895,10 +3901,10 @@
         <v>4850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>210</v>
@@ -3910,13 +3916,13 @@
         <v>21214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3937,13 @@
         <v>328538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -3946,13 +3952,13 @@
         <v>472732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>749</v>
@@ -3961,13 +3967,13 @@
         <v>801270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4029,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4041,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4056,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4071,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4092,13 @@
         <v>983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4101,13 +4107,13 @@
         <v>1774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4116,13 +4122,13 @@
         <v>2757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4143,13 @@
         <v>7041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4152,13 +4158,13 @@
         <v>2878</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4167,19 +4173,19 @@
         <v>9919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
         <v>5</v>
@@ -4188,13 +4194,13 @@
         <v>5169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4203,13 +4209,13 @@
         <v>16593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -4218,13 +4224,13 @@
         <v>21763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4245,13 @@
         <v>61626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -4254,13 +4260,13 @@
         <v>86486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -4269,13 +4275,13 @@
         <v>148111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4349,13 @@
         <v>916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4373,13 +4379,13 @@
         <v>916</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,10 +4400,10 @@
         <v>7193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>257</v>
@@ -4409,7 +4415,7 @@
         <v>2730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
@@ -4424,13 +4430,13 @@
         <v>9923</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,10 +4451,10 @@
         <v>19136</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>262</v>
@@ -4463,10 +4469,10 @@
         <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -4475,19 +4481,19 @@
         <v>38328</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
@@ -4496,13 +4502,13 @@
         <v>24488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -4511,13 +4517,13 @@
         <v>24430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -4526,13 +4532,13 @@
         <v>48918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4553,13 @@
         <v>716092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
         <v>1015</v>
@@ -4562,13 +4568,13 @@
         <v>1089114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>1673</v>
@@ -4577,13 +4583,13 @@
         <v>1805206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4645,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43180282-EB9A-4F53-8551-AB23E1D0A618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FDC2AE-A869-4580-9B41-4132EEFFC359}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4675,7 +4681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4788,7 +4794,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4803,7 +4809,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4818,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4845,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4848,13 +4854,13 @@
         <v>1949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4863,13 +4869,13 @@
         <v>1949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4899,13 +4905,13 @@
         <v>4110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4914,19 +4920,19 @@
         <v>4110</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -4935,13 +4941,13 @@
         <v>5317</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>60</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4950,13 +4956,13 @@
         <v>7752</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4965,13 +4971,13 @@
         <v>13070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4992,13 @@
         <v>252947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
@@ -5001,13 +5007,13 @@
         <v>397467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>612</v>
@@ -5016,13 +5022,13 @@
         <v>650414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5096,13 @@
         <v>983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5111,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5120,13 +5126,13 @@
         <v>983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5147,13 @@
         <v>7758</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5156,13 +5162,13 @@
         <v>1960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5171,13 +5177,13 @@
         <v>9718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5198,13 @@
         <v>9531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5207,13 +5213,13 @@
         <v>11033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -5222,19 +5228,19 @@
         <v>20564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>22</v>
@@ -5243,13 +5249,13 @@
         <v>24109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5258,13 +5264,13 @@
         <v>19093</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5273,13 +5279,13 @@
         <v>43202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5300,13 @@
         <v>418298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -5309,13 +5315,13 @@
         <v>552194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>913</v>
@@ -5324,13 +5330,13 @@
         <v>970492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5392,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5404,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5419,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5434,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5455,13 @@
         <v>3118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5464,13 +5470,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5479,13 +5485,13 @@
         <v>3999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5506,13 @@
         <v>6670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5515,13 +5521,13 @@
         <v>4031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5530,19 +5536,19 @@
         <v>10701</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
         <v>14</v>
@@ -5551,13 +5557,13 @@
         <v>15911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5566,13 +5572,13 @@
         <v>19369</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5581,13 +5587,13 @@
         <v>35280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5608,13 @@
         <v>95005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -5617,13 +5623,13 @@
         <v>114343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -5632,13 +5638,13 @@
         <v>209348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5712,13 @@
         <v>983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5736,13 +5742,13 @@
         <v>983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5763,13 @@
         <v>10877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>363</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5772,13 +5778,13 @@
         <v>4789</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -5787,13 +5793,13 @@
         <v>15666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>365</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5814,13 @@
         <v>16201</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>71</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5826,10 +5832,10 @@
         <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -5838,19 +5844,19 @@
         <v>35375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>41</v>
@@ -5859,13 +5865,13 @@
         <v>45338</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5874,13 +5880,13 @@
         <v>46214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -5889,13 +5895,13 @@
         <v>91552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5916,13 @@
         <v>766250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>985</v>
@@ -5925,13 +5931,13 @@
         <v>1064004</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>1718</v>
@@ -5940,13 +5946,13 @@
         <v>1830254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,7 +6008,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6021,7 +6027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396473B8-446C-40B4-82CB-6D56B3E28950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F942157-7910-42FE-9903-A007166F5214}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6038,7 +6044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6151,7 +6157,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6166,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6181,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6208,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6217,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6232,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6253,13 @@
         <v>478</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -6262,13 +6268,13 @@
         <v>3143</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -6280,16 +6286,16 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -6298,13 +6304,13 @@
         <v>1696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>399</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6313,13 +6319,13 @@
         <v>3102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>401</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6328,13 +6334,13 @@
         <v>4798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6355,13 @@
         <v>143336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>431</v>
@@ -6364,13 +6370,13 @@
         <v>260076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
@@ -6379,13 +6385,13 @@
         <v>403412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6468,13 +6474,13 @@
         <v>1426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -6489,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6510,13 @@
         <v>4859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6519,13 +6525,13 @@
         <v>5181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6534,13 +6540,13 @@
         <v>10040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6561,13 @@
         <v>17644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6570,13 +6576,13 @@
         <v>20568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>421</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -6585,19 +6591,19 @@
         <v>38212</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>16</v>
@@ -6606,13 +6612,13 @@
         <v>14850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -6621,13 +6627,13 @@
         <v>16694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -6636,13 +6642,13 @@
         <v>31544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6663,13 @@
         <v>348277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -6672,13 +6678,13 @@
         <v>444068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>950</v>
@@ -6687,13 +6693,13 @@
         <v>792347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6755,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6767,7 +6773,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6782,7 +6788,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6812,13 +6818,13 @@
         <v>2484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6827,13 +6833,13 @@
         <v>2293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -6842,13 +6848,13 @@
         <v>4778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6869,13 @@
         <v>15623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6878,13 +6884,13 @@
         <v>24900</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -6893,19 +6899,19 @@
         <v>40523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -6914,13 +6920,13 @@
         <v>11220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6929,13 +6935,13 @@
         <v>16937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6944,13 +6950,13 @@
         <v>28156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6971,13 @@
         <v>108095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -6980,13 +6986,13 @@
         <v>120755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -6995,13 +7001,13 @@
         <v>228850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,7 +7081,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7090,7 +7096,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -7099,13 +7105,13 @@
         <v>1426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7126,13 @@
         <v>7343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7135,13 +7141,13 @@
         <v>7474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -7150,13 +7156,13 @@
         <v>14817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7177,13 @@
         <v>33745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -7186,13 +7192,13 @@
         <v>48611</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -7201,19 +7207,19 @@
         <v>82355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>475</v>
+        <v>114</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>476</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>31</v>
@@ -7222,13 +7228,13 @@
         <v>27765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -7237,13 +7243,13 @@
         <v>36733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>483</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -7252,13 +7258,13 @@
         <v>64498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>485</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7279,13 @@
         <v>599710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H26" s="7">
         <v>1214</v>
@@ -7288,13 +7294,13 @@
         <v>824899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M26" s="7">
         <v>1858</v>
@@ -7303,13 +7309,13 @@
         <v>1424609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7371,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17G-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEED4DFF-0F37-4210-90F4-DA592EA388FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67831773-681D-4E37-A22E-97A650567211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7ABAB42B-D7B0-4FE1-A391-99CE12732897}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33C34C6E-6F92-4265-9030-FA0DE5E7B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="499">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -95,1402 +95,1411 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Médico privado/particular</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>Médico privado/particular</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
     <t>6,46%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
     <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
   </si>
   <si>
     <t>4,06%</t>
@@ -1938,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECDFDD-8551-42B2-A14D-D3762A0A4088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92234AA1-40D9-4FEE-A50C-1B7BB04D93A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2197,16 +2206,16 @@
         <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -2215,13 +2224,13 @@
         <v>1909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2230,13 +2239,13 @@
         <v>7611</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2245,10 +2254,10 @@
         <v>9520</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>41</v>
@@ -2391,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2406,7 +2415,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2430,13 @@
         <v>6576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2436,13 +2445,13 @@
         <v>7057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -2451,13 +2460,13 @@
         <v>13633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2481,13 @@
         <v>11350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2487,13 +2496,13 @@
         <v>17948</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -2502,19 +2511,19 @@
         <v>29298</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>10</v>
@@ -2523,13 +2532,13 @@
         <v>9678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2538,13 +2547,13 @@
         <v>7629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2553,13 +2562,13 @@
         <v>17307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2583,13 @@
         <v>222247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>361</v>
@@ -2589,13 +2598,13 @@
         <v>371518</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -2604,13 +2613,13 @@
         <v>593765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2675,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2684,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2699,7 +2708,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2714,7 +2723,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2738,13 @@
         <v>2114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2744,13 +2753,13 @@
         <v>1917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2759,13 +2768,13 @@
         <v>4031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2789,13 @@
         <v>13264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2795,13 +2804,13 @@
         <v>9108</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2810,19 +2819,19 @@
         <v>22373</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -2831,13 +2840,13 @@
         <v>5569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2846,13 +2855,13 @@
         <v>10516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2861,13 +2870,13 @@
         <v>16085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2891,13 @@
         <v>50820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -2897,13 +2906,13 @@
         <v>94607</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -2912,13 +2921,13 @@
         <v>145427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3007,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3022,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3046,13 @@
         <v>15296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3052,13 +3061,13 @@
         <v>9943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3067,13 +3076,13 @@
         <v>25239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3097,13 @@
         <v>29317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3103,13 +3112,13 @@
         <v>29390</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -3118,19 +3127,19 @@
         <v>58706</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
@@ -3139,13 +3148,13 @@
         <v>17157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3154,13 +3163,13 @@
         <v>25756</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -3169,13 +3178,13 @@
         <v>42913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3199,13 @@
         <v>594040</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>961</v>
@@ -3205,13 +3214,13 @@
         <v>983282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>1558</v>
@@ -3220,13 +3229,13 @@
         <v>1577321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3291,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9041C-DFB7-4AE5-AB9D-D6204D6CE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7096406-C25F-43CA-9C5E-66717222EC58}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3318,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3425,13 +3434,13 @@
         <v>916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3446,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3455,13 +3464,13 @@
         <v>916</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3485,13 @@
         <v>3467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3497,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3506,13 +3515,13 @@
         <v>4423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3536,13 @@
         <v>4215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3542,13 +3551,13 @@
         <v>7344</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3557,19 +3566,19 @@
         <v>11559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -3581,10 +3590,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3593,13 +3602,13 @@
         <v>2987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3608,13 +3617,13 @@
         <v>5942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3638,13 @@
         <v>325928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -3644,13 +3653,13 @@
         <v>529897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>797</v>
@@ -3659,13 +3668,13 @@
         <v>855825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3754,7 +3763,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3769,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3805,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3814,13 +3823,13 @@
         <v>2743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3844,13 @@
         <v>7880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -3850,13 +3859,13 @@
         <v>8969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -3865,19 +3874,19 @@
         <v>16850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>13</v>
@@ -3886,13 +3895,13 @@
         <v>16364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3901,13 +3910,13 @@
         <v>4850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3916,13 +3925,13 @@
         <v>21214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3946,13 @@
         <v>328538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -3952,13 +3961,13 @@
         <v>472732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>749</v>
@@ -3967,13 +3976,13 @@
         <v>801270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,7 +4038,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4047,7 +4056,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4062,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4077,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4101,13 @@
         <v>983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4107,13 +4116,13 @@
         <v>1774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4122,13 +4131,13 @@
         <v>2757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4152,13 @@
         <v>7041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4158,13 +4167,13 @@
         <v>2878</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4173,19 +4182,19 @@
         <v>9919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>5</v>
@@ -4194,13 +4203,13 @@
         <v>5169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4209,13 +4218,13 @@
         <v>16593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -4224,13 +4233,13 @@
         <v>21763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4254,13 @@
         <v>61626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -4260,13 +4269,13 @@
         <v>86486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -4275,13 +4284,13 @@
         <v>148111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4358,13 @@
         <v>916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4379,13 +4388,13 @@
         <v>916</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4409,13 @@
         <v>7193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4415,13 +4424,13 @@
         <v>2730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4430,13 +4439,13 @@
         <v>9923</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4460,13 @@
         <v>19136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -4466,13 +4475,13 @@
         <v>19192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -4481,19 +4490,19 @@
         <v>38328</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
@@ -4502,13 +4511,13 @@
         <v>24488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -4517,13 +4526,13 @@
         <v>24430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -4532,13 +4541,13 @@
         <v>48918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4562,13 @@
         <v>716092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>1015</v>
@@ -4568,13 +4577,13 @@
         <v>1089114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>1673</v>
@@ -4583,13 +4592,13 @@
         <v>1805206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,7 +4654,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4664,7 +4673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FDC2AE-A869-4580-9B41-4132EEFFC359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F624DD7A-E388-4B63-8529-A92BCEFBC6CF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4681,7 +4690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4794,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4809,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4824,7 +4833,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4854,13 +4863,13 @@
         <v>1949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4869,13 +4878,13 @@
         <v>1949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4905,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4905,13 +4914,13 @@
         <v>4110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4920,19 +4929,19 @@
         <v>4110</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>289</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -4941,13 +4950,13 @@
         <v>5317</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4956,13 +4965,13 @@
         <v>7752</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4971,13 +4980,13 @@
         <v>13070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5001,13 @@
         <v>252947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
@@ -5007,13 +5016,13 @@
         <v>397467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>612</v>
@@ -5022,13 +5031,13 @@
         <v>650414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5105,13 @@
         <v>983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5117,7 +5126,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5126,13 +5135,13 @@
         <v>983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5156,13 @@
         <v>7758</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5162,13 +5171,13 @@
         <v>1960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5177,13 +5186,13 @@
         <v>9718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5207,13 @@
         <v>9531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5213,13 +5222,13 @@
         <v>11033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -5228,19 +5237,19 @@
         <v>20564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>22</v>
@@ -5249,13 +5258,13 @@
         <v>24109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5264,13 +5273,13 @@
         <v>19093</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5279,13 +5288,13 @@
         <v>43202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5309,13 @@
         <v>418298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -5315,13 +5324,13 @@
         <v>552194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>913</v>
@@ -5330,13 +5339,13 @@
         <v>970492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5401,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5410,7 +5419,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5425,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5440,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5464,13 @@
         <v>3118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5470,13 +5479,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5485,13 +5494,13 @@
         <v>3999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5515,13 @@
         <v>6670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5521,13 +5530,13 @@
         <v>4031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5536,19 +5545,19 @@
         <v>10701</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>14</v>
@@ -5557,13 +5566,13 @@
         <v>15911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5572,13 +5581,13 @@
         <v>19369</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5587,13 +5596,13 @@
         <v>35280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5617,13 @@
         <v>95005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -5623,13 +5632,13 @@
         <v>114343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -5638,13 +5647,13 @@
         <v>209348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5721,13 @@
         <v>983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5742,13 +5751,13 @@
         <v>983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5772,13 @@
         <v>10877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5778,13 +5787,13 @@
         <v>4789</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -5793,13 +5802,13 @@
         <v>15666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5823,13 @@
         <v>16201</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>71</v>
+        <v>382</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5829,13 +5838,13 @@
         <v>19174</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -5844,19 +5853,19 @@
         <v>35375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>63</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>41</v>
@@ -5865,13 +5874,13 @@
         <v>45338</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5880,13 +5889,13 @@
         <v>46214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -5895,13 +5904,13 @@
         <v>91552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5925,13 @@
         <v>766250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>985</v>
@@ -5931,13 +5940,13 @@
         <v>1064004</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>1718</v>
@@ -5946,13 +5955,13 @@
         <v>1830254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +6017,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6027,7 +6036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F942157-7910-42FE-9903-A007166F5214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49392DA-4778-4BFC-AB08-DBC2B8959F64}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6044,7 +6053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6157,7 +6166,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6187,7 +6196,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6238,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6262,13 @@
         <v>478</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -6268,13 +6277,13 @@
         <v>3143</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -6286,16 +6295,16 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -6304,13 +6313,13 @@
         <v>1696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6319,13 +6328,13 @@
         <v>3102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6334,13 +6343,13 @@
         <v>4798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6364,13 @@
         <v>143336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>431</v>
@@ -6370,13 +6379,13 @@
         <v>260076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
@@ -6385,13 +6394,13 @@
         <v>403412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6474,13 +6483,13 @@
         <v>1426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -6489,13 +6498,13 @@
         <v>1426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6519,13 @@
         <v>4859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6525,13 +6534,13 @@
         <v>5181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6540,13 +6549,13 @@
         <v>10040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6570,13 @@
         <v>17644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6576,13 +6585,13 @@
         <v>20568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -6591,19 +6600,19 @@
         <v>38212</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>16</v>
@@ -6612,13 +6621,13 @@
         <v>14850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -6627,13 +6636,13 @@
         <v>16694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -6642,13 +6651,13 @@
         <v>31544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6672,13 @@
         <v>348277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -6678,13 +6687,13 @@
         <v>444068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>950</v>
@@ -6693,13 +6702,13 @@
         <v>792347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,7 +6764,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6773,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6788,7 +6797,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6803,7 +6812,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6827,13 @@
         <v>2484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6833,13 +6842,13 @@
         <v>2293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -6848,13 +6857,13 @@
         <v>4778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6878,13 @@
         <v>15623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6884,13 +6893,13 @@
         <v>24900</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>452</v>
+        <v>241</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -6899,19 +6908,19 @@
         <v>40523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -6920,13 +6929,13 @@
         <v>11220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6935,13 +6944,13 @@
         <v>16937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6950,13 +6959,13 @@
         <v>28156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6980,13 @@
         <v>108095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -6986,13 +6995,13 @@
         <v>120755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -7001,13 +7010,13 @@
         <v>228850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,7 +7090,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7090,7 +7099,7 @@
         <v>1426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
@@ -7105,13 +7114,13 @@
         <v>1426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7135,13 @@
         <v>7343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7141,13 +7150,13 @@
         <v>7474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>478</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -7156,13 +7165,13 @@
         <v>14817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7186,13 @@
         <v>33745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -7192,13 +7201,13 @@
         <v>48611</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -7207,19 +7216,19 @@
         <v>82355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>31</v>
@@ -7228,13 +7237,13 @@
         <v>27765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -7243,13 +7252,13 @@
         <v>36733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -7258,13 +7267,13 @@
         <v>64498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7288,13 @@
         <v>599710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H26" s="7">
         <v>1214</v>
@@ -7294,13 +7303,13 @@
         <v>824899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M26" s="7">
         <v>1858</v>
@@ -7309,13 +7318,13 @@
         <v>1424609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,7 +7380,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17G-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67831773-681D-4E37-A22E-97A650567211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50224D04-33CC-4594-BD7F-58DB38BB8218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33C34C6E-6F92-4265-9030-FA0DE5E7B3F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E301DF2-6ECD-4880-B1DD-707CEE4C9C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="494">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -95,1447 +95,1432 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>Médico privado/particular</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Médico privado/particular</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>5,22%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92234AA1-40D9-4FEE-A50C-1B7BB04D93A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5A20C-0A0E-4DE4-8E2D-BCC4D4E311C5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,10 +2242,10 @@
         <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,10 +2499,10 @@
         <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2517,13 @@
         <v>9678</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2547,13 +2532,13 @@
         <v>7629</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2562,13 +2547,13 @@
         <v>17307</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2568,13 @@
         <v>222247</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>361</v>
@@ -2598,13 +2583,13 @@
         <v>371518</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -2613,13 +2598,13 @@
         <v>593765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2660,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2693,7 +2678,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2708,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2723,7 +2708,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2723,13 @@
         <v>2114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2753,13 +2738,13 @@
         <v>1917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2768,13 +2753,13 @@
         <v>4031</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2774,13 @@
         <v>13264</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2804,13 +2789,13 @@
         <v>9108</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2819,13 +2804,13 @@
         <v>22373</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2825,13 @@
         <v>5569</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2855,13 +2840,13 @@
         <v>10516</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2870,13 +2855,13 @@
         <v>16085</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,16 +2873,16 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>50820</v>
+        <v>50821</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -2906,13 +2891,13 @@
         <v>94607</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -2921,13 +2906,13 @@
         <v>145427</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,7 +2924,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>71768</v>
+        <v>71769</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>52</v>
@@ -3001,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3016,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3031,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3031,13 @@
         <v>15296</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3061,13 +3046,13 @@
         <v>9943</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3076,13 +3061,13 @@
         <v>25239</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3082,13 @@
         <v>29317</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3112,13 +3097,13 @@
         <v>29390</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -3127,13 +3112,13 @@
         <v>58706</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,10 +3136,10 @@
         <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -3163,13 +3148,13 @@
         <v>25756</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -3178,13 +3163,13 @@
         <v>42913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3184,13 @@
         <v>594040</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>961</v>
@@ -3214,13 +3199,13 @@
         <v>983282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1558</v>
@@ -3229,13 +3214,13 @@
         <v>1577321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3276,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7096406-C25F-43CA-9C5E-66717222EC58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DA618C-CD76-4634-9105-751891410427}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3434,13 +3419,13 @@
         <v>916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3455,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3464,13 +3449,13 @@
         <v>916</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3470,13 @@
         <v>3467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3506,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3515,13 +3500,13 @@
         <v>4423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3521,13 @@
         <v>4215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3551,13 +3536,13 @@
         <v>7344</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3566,13 +3551,13 @@
         <v>11559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,10 +3575,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3602,13 +3587,13 @@
         <v>2987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3617,13 +3602,13 @@
         <v>5942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3623,13 @@
         <v>325928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -3653,13 +3638,13 @@
         <v>529897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>797</v>
@@ -3668,13 +3653,13 @@
         <v>855825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3763,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3778,7 +3763,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,10 +3781,10 @@
         <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3814,7 +3799,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3823,13 +3808,13 @@
         <v>2743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3829,13 @@
         <v>7880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -3859,13 +3844,13 @@
         <v>8969</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -3874,13 +3859,13 @@
         <v>16850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3880,13 @@
         <v>16364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3910,13 +3895,13 @@
         <v>4850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3925,13 +3910,13 @@
         <v>21214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3931,13 @@
         <v>328538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -3961,13 +3946,13 @@
         <v>472732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>749</v>
@@ -3976,13 +3961,13 @@
         <v>801270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4023,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4056,7 +4041,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4071,7 +4056,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4086,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4086,13 @@
         <v>983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4116,13 +4101,13 @@
         <v>1774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4131,13 +4116,13 @@
         <v>2757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4137,13 @@
         <v>7041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4167,13 +4152,13 @@
         <v>2878</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4182,13 +4167,13 @@
         <v>9919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4188,13 @@
         <v>5169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4218,13 +4203,13 @@
         <v>16593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -4233,13 +4218,13 @@
         <v>21763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4239,13 @@
         <v>61626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -4269,13 +4254,13 @@
         <v>86486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -4284,13 +4269,13 @@
         <v>148111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4343,13 @@
         <v>916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4388,13 +4373,13 @@
         <v>916</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4394,13 @@
         <v>7193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4424,13 +4409,13 @@
         <v>2730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4439,13 +4424,13 @@
         <v>9923</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4445,13 @@
         <v>19136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -4475,13 +4460,13 @@
         <v>19192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -4490,13 +4475,13 @@
         <v>38328</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4496,13 @@
         <v>24488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -4526,13 +4511,13 @@
         <v>24430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -4541,13 +4526,13 @@
         <v>48918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4547,13 @@
         <v>716092</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>1015</v>
@@ -4577,13 +4562,13 @@
         <v>1089114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
         <v>1673</v>
@@ -4592,13 +4577,13 @@
         <v>1805206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,7 +4639,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F624DD7A-E388-4B63-8529-A92BCEFBC6CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D61041B-D2F3-457C-ACA2-AD6D72025060}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4690,7 +4675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4803,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4818,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4854,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4863,13 +4848,13 @@
         <v>1949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4878,13 +4863,13 @@
         <v>1949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4914,13 +4899,13 @@
         <v>4110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4929,13 +4914,13 @@
         <v>4110</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4935,13 @@
         <v>5317</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4965,13 +4950,13 @@
         <v>7752</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4980,13 +4965,13 @@
         <v>13070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4986,13 @@
         <v>252947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
@@ -5016,13 +5001,13 @@
         <v>397467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>612</v>
@@ -5031,13 +5016,13 @@
         <v>650414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5090,13 @@
         <v>983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5126,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5135,13 +5120,13 @@
         <v>983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5141,13 @@
         <v>7758</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5171,13 +5156,13 @@
         <v>1960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5186,13 +5171,13 @@
         <v>9718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5192,13 @@
         <v>9531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5222,13 +5207,13 @@
         <v>11033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -5237,13 +5222,13 @@
         <v>20564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>312</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5243,13 @@
         <v>24109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5273,13 +5258,13 @@
         <v>19093</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5288,13 +5273,13 @@
         <v>43202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5294,13 @@
         <v>418298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -5324,13 +5309,13 @@
         <v>552194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>913</v>
@@ -5339,13 +5324,13 @@
         <v>970492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,7 +5386,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5419,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5434,7 +5419,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5449,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5449,13 @@
         <v>3118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5479,13 +5464,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5494,13 +5479,13 @@
         <v>3999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5500,13 @@
         <v>6670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5530,13 +5515,13 @@
         <v>4031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5545,13 +5530,13 @@
         <v>10701</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5551,13 @@
         <v>15911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5581,13 +5566,13 @@
         <v>19369</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5596,13 +5581,13 @@
         <v>35280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5602,13 @@
         <v>95005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -5632,13 +5617,13 @@
         <v>114343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -5647,13 +5632,13 @@
         <v>209348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5706,13 @@
         <v>983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5751,13 +5736,13 @@
         <v>983</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5757,13 @@
         <v>10877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5787,13 +5772,13 @@
         <v>4789</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -5802,13 +5787,13 @@
         <v>15666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5808,13 @@
         <v>16201</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5838,13 +5823,13 @@
         <v>19174</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -5853,13 +5838,13 @@
         <v>35375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5859,13 @@
         <v>45338</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -5889,13 +5874,13 @@
         <v>46214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -5904,13 +5889,13 @@
         <v>91552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5910,13 @@
         <v>766250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>985</v>
@@ -5940,13 +5925,13 @@
         <v>1064004</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>1718</v>
@@ -5955,13 +5940,13 @@
         <v>1830254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6002,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6036,7 +6021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49392DA-4778-4BFC-AB08-DBC2B8959F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABCF97F-1121-48E3-881F-09B418013FA5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6053,7 +6038,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6166,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6181,7 +6166,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6196,7 +6181,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6202,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6232,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6247,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6247,13 @@
         <v>478</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -6277,13 +6262,13 @@
         <v>3143</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -6295,10 +6280,10 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6298,13 @@
         <v>1696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6328,13 +6313,13 @@
         <v>3102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6343,13 +6328,13 @@
         <v>4798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6349,13 @@
         <v>143336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>431</v>
@@ -6379,13 +6364,13 @@
         <v>260076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
@@ -6394,13 +6379,13 @@
         <v>403412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6483,13 +6468,13 @@
         <v>1426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -6498,13 +6483,13 @@
         <v>1426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6504,13 @@
         <v>4859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6534,13 +6519,13 @@
         <v>5181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6549,13 +6534,13 @@
         <v>10040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6555,13 @@
         <v>17644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6585,13 +6570,13 @@
         <v>20568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -6600,13 +6585,13 @@
         <v>38212</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6606,13 @@
         <v>14850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -6636,13 +6621,13 @@
         <v>16694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -6651,13 +6636,13 @@
         <v>31544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6657,13 @@
         <v>348277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -6687,13 +6672,13 @@
         <v>444068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>950</v>
@@ -6702,13 +6687,13 @@
         <v>792347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,7 +6749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6782,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6797,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6812,7 +6797,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6812,13 @@
         <v>2484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6842,13 +6827,13 @@
         <v>2293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -6857,13 +6842,13 @@
         <v>4778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6863,13 @@
         <v>15623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6893,13 +6878,13 @@
         <v>24900</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -6908,13 +6893,13 @@
         <v>40523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6914,13 @@
         <v>11220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6944,13 +6929,13 @@
         <v>16937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6959,13 +6944,13 @@
         <v>28156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6965,13 @@
         <v>108095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -6995,13 +6980,13 @@
         <v>120755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -7010,13 +6995,13 @@
         <v>228850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7075,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7099,13 +7084,13 @@
         <v>1426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -7114,13 +7099,13 @@
         <v>1426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,10 +7123,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7150,13 +7135,13 @@
         <v>7474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -7165,13 +7150,13 @@
         <v>14817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7171,13 @@
         <v>33745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -7201,13 +7186,13 @@
         <v>48611</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -7216,13 +7201,13 @@
         <v>82355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7222,13 @@
         <v>27765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>479</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -7252,13 +7237,13 @@
         <v>36733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -7267,13 +7252,13 @@
         <v>64498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7273,13 @@
         <v>599710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>1214</v>
@@ -7303,13 +7288,13 @@
         <v>824899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M26" s="7">
         <v>1858</v>
@@ -7318,13 +7303,13 @@
         <v>1424609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,7 +7365,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17G-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50224D04-33CC-4594-BD7F-58DB38BB8218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{439E62EF-8DF9-4909-B73F-51C301BFCFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E301DF2-6ECD-4880-B1DD-707CEE4C9C1A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CB68706A-0F75-4CFD-AF03-A6616DA8BE17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="479">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -1214,313 +1214,268 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5A20C-0A0E-4DE4-8E2D-BCC4D4E311C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B576648-7EF2-4B4C-9B34-B932CCE19351}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3295,7 +3250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DA618C-CD76-4634-9105-751891410427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E5E64C-5D45-48E3-BEC1-7B27DA7A1218}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4658,7 +4613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D61041B-D2F3-457C-ACA2-AD6D72025060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3063-3AC7-4C79-B703-11BB17242D9F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6021,7 +5976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABCF97F-1121-48E3-881F-09B418013FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6A6096-0148-42FF-BCCE-6AD57F5147D0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6244,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
@@ -6259,13 +6214,13 @@
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>3143</v>
+        <v>2880</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>391</v>
@@ -6274,16 +6229,16 @@
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>3621</v>
+        <v>3332</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,46 +6250,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1696</v>
+        <v>1477</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>3102</v>
+        <v>2518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>4798</v>
+        <v>3995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,46 +6301,46 @@
         <v>184</v>
       </c>
       <c r="D8" s="7">
-        <v>143336</v>
+        <v>135583</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>431</v>
       </c>
       <c r="I8" s="7">
-        <v>260076</v>
+        <v>232204</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
       </c>
       <c r="N8" s="7">
-        <v>403412</v>
+        <v>367787</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,7 +6352,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="7">
-        <v>145510</v>
+        <v>137512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -6412,7 +6367,7 @@
         <v>441</v>
       </c>
       <c r="I9" s="7">
-        <v>266321</v>
+        <v>237602</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -6427,7 +6382,7 @@
         <v>628</v>
       </c>
       <c r="N9" s="7">
-        <v>411831</v>
+        <v>375114</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>52</v>
@@ -6459,37 +6414,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,46 +6456,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4859</v>
+        <v>4573</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>5181</v>
+        <v>4429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>10040</v>
+        <v>9002</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,46 +6507,46 @@
         <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>17644</v>
+        <v>16960</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>20568</v>
+        <v>18779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>38212</v>
+        <v>35739</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,46 +6558,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>14850</v>
+        <v>14056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>16694</v>
+        <v>15259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>31544</v>
+        <v>29314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,46 +6609,46 @@
         <v>345</v>
       </c>
       <c r="D14" s="7">
-        <v>348277</v>
+        <v>334069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
       </c>
       <c r="I14" s="7">
-        <v>444068</v>
+        <v>462531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M14" s="7">
         <v>950</v>
       </c>
       <c r="N14" s="7">
-        <v>792347</v>
+        <v>796600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>436</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,7 +6660,7 @@
         <v>379</v>
       </c>
       <c r="D15" s="7">
-        <v>385630</v>
+        <v>369658</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>52</v>
@@ -6720,7 +6675,7 @@
         <v>666</v>
       </c>
       <c r="I15" s="7">
-        <v>487937</v>
+        <v>502340</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -6735,7 +6690,7 @@
         <v>1045</v>
       </c>
       <c r="N15" s="7">
-        <v>873568</v>
+        <v>871998</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>52</v>
@@ -6809,46 +6764,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2484</v>
+        <v>2189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2293</v>
+        <v>2208</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>4778</v>
+        <v>4397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,46 +6815,46 @@
         <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>15623</v>
+        <v>15259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>24900</v>
+        <v>23140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
       </c>
       <c r="N18" s="7">
-        <v>40523</v>
+        <v>38399</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,46 +6866,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>11220</v>
+        <v>11203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>16937</v>
+        <v>16094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>28156</v>
+        <v>27297</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,46 +6917,46 @@
         <v>115</v>
       </c>
       <c r="D20" s="7">
-        <v>108095</v>
+        <v>104833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
       </c>
       <c r="I20" s="7">
-        <v>120755</v>
+        <v>112014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
       </c>
       <c r="N20" s="7">
-        <v>228850</v>
+        <v>216846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,7 +6968,7 @@
         <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>137422</v>
+        <v>133483</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>52</v>
@@ -7028,7 +6983,7 @@
         <v>238</v>
       </c>
       <c r="I21" s="7">
-        <v>164885</v>
+        <v>153456</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -7043,7 +6998,7 @@
         <v>383</v>
       </c>
       <c r="N21" s="7">
-        <v>302307</v>
+        <v>286939</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>52</v>
@@ -7081,10 +7036,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
@@ -7096,7 +7051,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>201</v>
@@ -7105,7 +7060,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,46 +7072,46 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>7343</v>
+        <v>6762</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>7474</v>
+        <v>6637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>223</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
       </c>
       <c r="N23" s="7">
-        <v>14817</v>
+        <v>13399</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,46 +7123,46 @@
         <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>33745</v>
+        <v>32671</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>48611</v>
+        <v>44799</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
       </c>
       <c r="N24" s="7">
-        <v>82355</v>
+        <v>77470</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,46 +7174,46 @@
         <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>27765</v>
+        <v>26735</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
       </c>
       <c r="I25" s="7">
-        <v>36733</v>
+        <v>33871</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
       </c>
       <c r="N25" s="7">
-        <v>64498</v>
+        <v>60606</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,46 +7225,46 @@
         <v>644</v>
       </c>
       <c r="D26" s="7">
-        <v>599710</v>
+        <v>574485</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7">
         <v>1214</v>
       </c>
       <c r="I26" s="7">
-        <v>824899</v>
+        <v>806750</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>1858</v>
       </c>
       <c r="N26" s="7">
-        <v>1424609</v>
+        <v>1381234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,7 +7276,7 @@
         <v>711</v>
       </c>
       <c r="D27" s="7">
-        <v>668563</v>
+        <v>640653</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>52</v>
@@ -7336,7 +7291,7 @@
         <v>1345</v>
       </c>
       <c r="I27" s="7">
-        <v>919143</v>
+        <v>893399</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -7351,7 +7306,7 @@
         <v>2056</v>
       </c>
       <c r="N27" s="7">
-        <v>1587706</v>
+        <v>1534051</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>52</v>
